--- a/Esperienza5.xlsb.xlsx
+++ b/Esperienza5.xlsb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mat\Desktop\labOttica\OOL_esp5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDBEC77-2B02-4F35-B958-9447896147EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA62437-2A09-4DCC-B56E-CEF1955A0B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9784BF0A-C310-4718-98C1-7536938CE295}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9784BF0A-C310-4718-98C1-7536938CE295}"/>
   </bookViews>
   <sheets>
     <sheet name="Legge di Malus" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>∆</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>deltaTheta tot</t>
+  </si>
+  <si>
+    <t>media pesata</t>
+  </si>
+  <si>
+    <t>delta_c</t>
   </si>
 </sst>
 </file>
@@ -251,12 +257,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -289,11 +301,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -322,9 +333,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,7 +356,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -354,14 +368,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.36471522309711285"/>
-          <c:y val="1.8518518518518517E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -387,7 +393,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -398,8 +404,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>nuovo</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -412,11 +421,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -424,39 +433,39 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Legge di Malus'!$E$3:$E$12</c:f>
+              <c:f>'Legge di Malus'!$J$19:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.99878153032085315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9698463103929541</c:v>
+                  <c:v>0.96870132342680848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88302222155948906</c:v>
+                  <c:v>0.88208881963266972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75000000000000011</c:v>
+                  <c:v>0.74939076516042669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58682408883346515</c:v>
+                  <c:v>0.58661250379413887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41317591116653485</c:v>
+                  <c:v>0.41338749620586113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25000000000000011</c:v>
+                  <c:v>0.25060923483957354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11697777844051105</c:v>
+                  <c:v>0.11791118036733045</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0153689607045831E-2</c:v>
+                  <c:v>3.1298676573191485E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7524718414124473E-33</c:v>
+                  <c:v>1.2184696791468343E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +512,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1CC2-4D39-9BEB-CB4B1F2E4164}"/>
+              <c16:uniqueId val="{00000001-810F-4E37-B674-4D9CE590C9E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1254,16 +1263,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1309,7 +1318,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1625,34 +1634,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC15311C-F258-4E27-A54B-F5DED100C935}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="3"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1677,25 +1691,25 @@
       <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="P2" t="s">
@@ -1708,7 +1722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>110</v>
       </c>
@@ -1737,31 +1751,31 @@
         <f>SQRT((G3*0.01)^2+0.1^2)</f>
         <v>1.4654159818972903</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="11">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="12">
         <f>G3</f>
         <v>146.19999999999999</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="12">
         <f>H3^(-2)</f>
         <v>0.46566988475601706</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="12">
         <f t="shared" ref="L3:L12" si="1">K3*I3</f>
         <v>0.46566988475601706</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="12">
         <f>K3*J3</f>
         <v>68.080937151329692</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="12">
         <f>K3*I3*I3</f>
         <v>0.46566988475601706</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="13">
         <f>K3*I3*J3</f>
         <v>68.080937151329692</v>
       </c>
@@ -1777,8 +1791,12 @@
         <f>(N13*M13-L13*O13)/P3</f>
         <v>0.86846688301996811</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3">
+        <f>(G3-$Q$3*E3-$R$3)^2/H3^2</f>
+        <v>15.498768891594603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1807,31 +1825,31 @@
         <f>SQRT((G4*0.01)^2+0.1^2)</f>
         <v>1.4295020111913097</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="11">
         <f t="shared" ref="I4:I12" si="4">E4</f>
         <v>0.9698463103929541</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="12">
         <f t="shared" ref="J4:J12" si="5">G4</f>
         <v>142.6</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="12">
         <f t="shared" ref="K4:K12" si="6">H4^(-2)</f>
         <v>0.48936224354971647</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="12">
         <f t="shared" si="1"/>
         <v>0.47460616635231073</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="12">
         <f t="shared" ref="M4:M12" si="7">K4*J4</f>
         <v>69.783055930189562</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="12">
         <f t="shared" ref="N4:N12" si="8">K4*I4*I4</f>
         <v>0.46029503932653315</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="13">
         <f t="shared" ref="O4:O12" si="9">K4*I4*J4</f>
         <v>67.678839321839504</v>
       </c>
@@ -1841,8 +1859,12 @@
       <c r="R4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4">
+        <f t="shared" ref="S4:S12" si="10">(G4-$Q$3*E4-$R$3)^2/H4^2</f>
+        <v>11.335482709418285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>59</v>
       </c>
@@ -1850,7 +1872,7 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C12" si="10">-(B5-$A$3)</f>
+        <f t="shared" ref="C5:C12" si="11">-(B5-$A$3)</f>
         <v>20</v>
       </c>
       <c r="D5">
@@ -1868,34 +1890,34 @@
         <v>130.1</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H12" si="11">SQRT((G5*0.01)^2+0.1^2)</f>
+        <f t="shared" ref="H5:H12" si="12">SQRT((G5*0.01)^2+0.1^2)</f>
         <v>1.3048375377800869</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="11">
         <f>E5</f>
         <v>0.88302222155948906</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="12">
         <f t="shared" si="5"/>
         <v>130.1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="12">
         <f t="shared" si="6"/>
         <v>0.58733666901405557</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="12">
         <f t="shared" si="1"/>
         <v>0.51863133027614172</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="12">
         <f t="shared" si="7"/>
         <v>76.412500638728631</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="12">
         <f t="shared" si="8"/>
         <v>0.45796298943079178</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="13">
         <f t="shared" si="9"/>
         <v>67.473936068926037</v>
       </c>
@@ -1907,13 +1929,17 @@
         <f>SQRT(N13/P3)</f>
         <v>7.5213855502230503E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5">
+        <f t="shared" si="10"/>
+        <v>10.329563833172671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>80</v>
       </c>
       <c r="C6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="D6">
@@ -1931,44 +1957,48 @@
         <v>112.1</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1254514649686143</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="11">
         <f t="shared" si="4"/>
         <v>0.75000000000000011</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="12">
         <f t="shared" si="5"/>
         <v>112.1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="12">
         <f t="shared" si="6"/>
         <v>0.78948968176460421</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
         <v>0.59211726132345321</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="12">
         <f t="shared" si="7"/>
         <v>88.50179332581213</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="12">
         <f t="shared" si="8"/>
         <v>0.44408794599258999</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="13">
         <f t="shared" si="9"/>
         <v>66.376344994359101</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6">
+        <f t="shared" si="10"/>
+        <v>3.4616381107696879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>70</v>
       </c>
       <c r="C7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="D7">
@@ -1986,44 +2016,48 @@
         <v>89.6</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.90156308708819699</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="11">
         <f t="shared" si="4"/>
         <v>0.58682408883346515</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="12">
         <f t="shared" si="5"/>
         <v>89.6</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="12">
         <f t="shared" si="6"/>
         <v>1.2302907423082226</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="12">
         <f t="shared" si="1"/>
         <v>0.72196424385527014</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="12">
         <f t="shared" si="7"/>
         <v>110.23405051081673</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="12">
         <f t="shared" si="8"/>
         <v>0.42366600957071054</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="13">
         <f t="shared" si="9"/>
         <v>64.687996249432203</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7">
+        <f t="shared" si="10"/>
+        <v>4.7338766505454957E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>60</v>
       </c>
       <c r="C8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="D8">
@@ -2041,44 +2075,48 @@
         <v>64.599999999999994</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.6536941180705238</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="11">
         <f t="shared" si="4"/>
         <v>0.41317591116653485</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="12">
         <f t="shared" si="5"/>
         <v>64.599999999999994</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="12">
         <f t="shared" si="6"/>
         <v>2.3401885255876218</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="12">
         <f t="shared" si="1"/>
         <v>0.96690952636113536</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="12">
         <f t="shared" si="7"/>
         <v>151.17617875296037</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="12">
         <f t="shared" si="8"/>
         <v>0.39950372456986477</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="13">
         <f t="shared" si="9"/>
         <v>62.46235540292934</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8">
+        <f t="shared" si="10"/>
+        <v>3.9572514372334258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>50</v>
       </c>
       <c r="C9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="D9">
@@ -2096,44 +2134,48 @@
         <v>40</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.41231056256176613</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="11">
         <f t="shared" si="4"/>
         <v>0.25000000000000011</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="12">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="12">
         <f t="shared" si="6"/>
         <v>5.8823529411764683</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="12">
         <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="12">
         <f t="shared" si="7"/>
         <v>235.29411764705873</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="12">
         <f t="shared" si="8"/>
         <v>0.3676470588235296</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="13">
         <f t="shared" si="9"/>
         <v>58.82352941176471</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9">
+        <f t="shared" si="10"/>
+        <v>10.821997449546696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>40</v>
       </c>
       <c r="C10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="D10">
@@ -2151,44 +2193,48 @@
         <v>20.2</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.22539742678211744</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="11">
         <f t="shared" si="4"/>
         <v>0.11697777844051105</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="12">
         <f t="shared" si="5"/>
         <v>20.2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="12">
         <f t="shared" si="6"/>
         <v>19.683489489016619</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="12">
         <f t="shared" si="1"/>
         <v>2.3025308723823139</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="12">
         <f t="shared" si="7"/>
         <v>397.60648767813569</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="12">
         <f t="shared" si="8"/>
         <v>0.26934494624197491</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="13">
         <f t="shared" si="9"/>
         <v>46.511123622122739</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10">
+        <f t="shared" si="10"/>
+        <v>53.986204491508062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="D11">
@@ -2206,44 +2252,48 @@
         <v>6</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.11661903789690602</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="11">
         <f t="shared" si="4"/>
         <v>3.0153689607045831E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="12">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="12">
         <f t="shared" si="6"/>
         <v>73.529411764705884</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="12">
         <f t="shared" si="1"/>
         <v>2.2171830593416053</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="12">
         <f t="shared" si="7"/>
         <v>441.1764705882353</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="12">
         <f t="shared" si="8"/>
         <v>6.6856249773387041E-2</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="13">
         <f t="shared" si="9"/>
         <v>13.303098356049631</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11">
+        <f t="shared" si="10"/>
+        <v>24.335269750601316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>20</v>
       </c>
       <c r="C12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="D12">
@@ -2261,89 +2311,97 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10000499987500626</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="11">
         <f t="shared" si="4"/>
         <v>3.7524718414124473E-33</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="12">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="12">
         <f t="shared" si="6"/>
         <v>99.990000999900005</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="12">
         <f t="shared" si="1"/>
         <v>3.7520966317492723E-31</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="12">
         <f t="shared" si="7"/>
         <v>9.9990000999900008</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="12">
         <f t="shared" si="8"/>
         <v>1.4079636956897632E-63</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="13">
         <f t="shared" si="9"/>
         <v>3.7520966317492727E-32</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="S12">
+        <f t="shared" si="10"/>
+        <v>59.048230206821849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13">
-        <f t="shared" ref="I13:O13" si="12">SUM(I3:I12)</f>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="12">
+        <f t="shared" ref="I13:O13" si="13">SUM(I3:I12)</f>
         <v>5</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="12"/>
+      <c r="J13" s="12">
+        <f t="shared" si="13"/>
         <v>751.50000000000011</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="12"/>
+      <c r="K13" s="12">
+        <f t="shared" si="13"/>
         <v>204.98759294177921</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="12"/>
+      <c r="L13" s="12">
+        <f t="shared" si="13"/>
         <v>9.7302005799423643</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="12"/>
+      <c r="M13" s="12">
+        <f t="shared" si="13"/>
         <v>1648.2645923232569</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="12"/>
+      <c r="N13" s="12">
+        <f t="shared" si="13"/>
         <v>3.3550338484853981</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="12"/>
+      <c r="O13" s="12">
+        <f t="shared" si="13"/>
         <v>515.39816057875294</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13">
+        <f>SUM(S3:S12)</f>
+        <v>192.77914075731715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -2357,7 +2415,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2371,7 +2429,7 @@
         <v>143.19999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2385,12 +2443,12 @@
         <v>140.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>127.6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2409,8 +2467,20 @@
       <c r="G19">
         <v>110.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <f>(COS(RADIANS(C3)))^2 - 1/2 * (2*COS(2*RADIANS(C3))) * (RADIANS(D3))^2</f>
+        <v>0.99878153032085315</v>
+      </c>
+      <c r="K19">
+        <f>1/SQRT(2) * ABS(2*COS(2*C3)) * (RADIANS(D3))</f>
+        <v>4.9365365979537397E-2</v>
+      </c>
+      <c r="L19">
+        <f>SQRT(F3^2+K19^2)</f>
+        <v>4.9365365979537397E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2429,30 +2499,144 @@
       <c r="G20">
         <v>89.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <f t="shared" ref="J20:J28" si="14">(COS(RADIANS(C4)))^2 - 1/2 * (2*COS(2*RADIANS(C4))) * (RADIANS(D4))^2</f>
+        <v>0.96870132342680848</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K28" si="15">1/SQRT(2) * ABS(2*COS(2*C4)) * (RADIANS(D4))</f>
+        <v>2.0145120331102297E-2</v>
+      </c>
+      <c r="L20">
+        <f>SQRT(F4^2+K20^2)</f>
+        <v>2.3417082425407097E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>64.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <f t="shared" si="14"/>
+        <v>0.88208881963266972</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="15"/>
+        <v>3.2923641499147185E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L20:L28" si="16">SQRT(F5^2+K21^2)</f>
+        <v>3.984229523351604E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <f t="shared" si="14"/>
+        <v>0.74939076516042669</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="15"/>
+        <v>4.7016215341856175E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="16"/>
+        <v>5.5896124771149538E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <f t="shared" si="14"/>
+        <v>0.58661250379413887</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="15"/>
+        <v>5.4493066915870178E-3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="16"/>
+        <v>3.4805506260722874E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <f t="shared" si="14"/>
+        <v>0.41338749620586113</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="15"/>
+        <v>4.2568686721543486E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="16"/>
+        <v>5.4715824144786089E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>0.1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="14"/>
+        <v>0.25060923483957354</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="15"/>
+        <v>4.0192341583618674E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="16"/>
+        <v>5.0291913677393593E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="14"/>
+        <v>0.11791118036733045</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="15"/>
+        <v>9.7651394764410055E-3</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="16"/>
+        <v>2.4470395765181962E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="14"/>
+        <v>3.1298676573191485E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="15"/>
+        <v>4.8162298086501458E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="16"/>
+        <v>4.961996405819679E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="14"/>
+        <v>1.2184696791468343E-3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="15"/>
+        <v>2.9543200333180388E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="16"/>
+        <v>2.9543200333180388E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2468,18 +2652,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6229173D-4D88-4A36-BB0E-A6ECCF5185AA}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2492,12 +2677,12 @@
       <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.65</v>
       </c>
@@ -2510,33 +2695,33 @@
       <c r="D2">
         <v>0.65500000000000003</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f>B2+C2*A2^(-2)+D2*A2^(-4)</f>
         <v>53.958439900563704</v>
       </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2556,7 +2741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.07</v>
       </c>
@@ -2576,7 +2761,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2614,7 +2799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -2656,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -2698,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -2740,11 +2925,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f>334-360</f>
         <v>-26</v>
       </c>
@@ -2782,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -2824,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>189</v>
       </c>
@@ -2871,7 +3056,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>187</v>
       </c>
@@ -2912,7 +3097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>47</v>
       </c>
@@ -2953,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2979,7 +3164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>AVERAGE(C7:C14)</f>
         <v>-42.75</v>
@@ -3013,7 +3198,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3033,7 +3218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>-A16/(E2*A5)</f>
         <v>0.74044525938230454</v>
@@ -3057,6 +3242,29 @@
       <c r="J18">
         <f>I18*(J5/I5-2/I16)</f>
         <v>4.0576044943467067E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f>((1/B18^2) * A18  + (1/F18^2) * E18  +  (1/J18^2) * I18)  /  (1/B18^2 + 1/F18^2 + 1/J18^2)</f>
+        <v>0.73830986207982618</v>
+      </c>
+      <c r="F25">
+        <f>1  /  (1/B18^2 + 1/F18^2 + 1/J18^2)</f>
+        <v>5.6110712834281081E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Esperienza5.xlsb.xlsx
+++ b/Esperienza5.xlsb.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mat\Desktop\labOttica\OOL_esp5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA62437-2A09-4DCC-B56E-CEF1955A0B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5FBDBC-DA06-42E5-9813-4F2EA4FF043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9784BF0A-C310-4718-98C1-7536938CE295}"/>
   </bookViews>
   <sheets>
-    <sheet name="Legge di Malus" sheetId="1" r:id="rId1"/>
-    <sheet name="Potere rotatorio" sheetId="2" r:id="rId2"/>
+    <sheet name="Legge di Malus (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Legge di Malus" sheetId="1" r:id="rId2"/>
+    <sheet name="Potere rotatorio" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>∆</t>
   </si>
@@ -228,6 +229,12 @@
   </si>
   <si>
     <t>delta_c</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>COS2</t>
   </si>
 </sst>
 </file>
@@ -354,6 +361,356 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>nuovo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Legge di Malus (2)'!$J$19:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.99878153032085315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96870132342680848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88208881963266972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74939076516042669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58661250379413887</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41338749620586113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25060923483957354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11791118036733045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1298676573191485E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2184696791468343E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Legge di Malus (2)'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9915-439C-AC72-4B29EDA4DCBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="921163839"/>
+        <c:axId val="921164319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="921163839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921164319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="921164319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921163839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -743,6 +1100,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1259,7 +1656,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0814AA-E433-406D-ABFB-C1F49BC40322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1633,11 +2589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC15311C-F258-4E27-A54B-F5DED100C935}">
-  <dimension ref="A1:S28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7616C667-0513-4670-A2BB-DAB948E41E92}">
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="AD38" sqref="AD38"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,6 +2636,1048 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3" si="0">B3-$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="F3">
+        <v>1.4654159818972903</v>
+      </c>
+      <c r="G3">
+        <v>0.99878153032085315</v>
+      </c>
+      <c r="H3">
+        <v>1.7231763455898465E-3</v>
+      </c>
+      <c r="I3" s="11">
+        <f>E3</f>
+        <v>146.19999999999999</v>
+      </c>
+      <c r="J3" s="12">
+        <f>G3</f>
+        <v>0.99878153032085315</v>
+      </c>
+      <c r="K3" s="12">
+        <f>H3^(-2)</f>
+        <v>336775.5478649197</v>
+      </c>
+      <c r="L3" s="12">
+        <f t="shared" ref="L3:L12" si="1">K3*I3</f>
+        <v>49236585.097851254</v>
+      </c>
+      <c r="M3" s="12">
+        <f>K3*J3</f>
+        <v>336365.19707116822</v>
+      </c>
+      <c r="N3" s="12">
+        <f>K3*I3*I3</f>
+        <v>7198388741.3058529</v>
+      </c>
+      <c r="O3" s="13">
+        <f>K3*I3*J3</f>
+        <v>49176591.811804786</v>
+      </c>
+      <c r="P3">
+        <f>N13*K13-L13^2</f>
+        <v>2553825314583635</v>
+      </c>
+      <c r="Q3">
+        <f>(K13*O13-L13*M13)/P3</f>
+        <v>6.8288917807763716E-3</v>
+      </c>
+      <c r="R3">
+        <f>(N13*M13-L13*O13)/P3</f>
+        <v>1.0517247336953826E-4</v>
+      </c>
+      <c r="S3">
+        <f>(G3-$Q$3*E3-$R$3)^2/H3^2</f>
+        <v>2.8789517308613614E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <f>-(B4-$A$3)</f>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>142.6</v>
+      </c>
+      <c r="F4">
+        <v>1.4295020111913097</v>
+      </c>
+      <c r="G4">
+        <v>0.96870132342680848</v>
+      </c>
+      <c r="H4">
+        <v>1.2048064843326737E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I12" si="2">E4</f>
+        <v>142.6</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:J12" si="3">G4</f>
+        <v>0.96870132342680848</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K12" si="4">H4^(-2)</f>
+        <v>6889.1462971875426</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" si="1"/>
+        <v>982392.26197894348</v>
+      </c>
+      <c r="M4" s="12">
+        <f t="shared" ref="M4:M12" si="5">K4*J4</f>
+        <v>6673.5251353664698</v>
+      </c>
+      <c r="N4" s="12">
+        <f t="shared" ref="N4:N12" si="6">K4*I4*I4</f>
+        <v>140089136.55819735</v>
+      </c>
+      <c r="O4" s="13">
+        <f t="shared" ref="O4:O12" si="7">K4*I4*J4</f>
+        <v>951644.68430325855</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S12" si="8">(G4-$Q$3*E4-$R$3)^2/H4^2</f>
+        <v>0.18655609225400449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C12" si="9">-(B5-$A$3)</f>
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>130.1</v>
+      </c>
+      <c r="F5">
+        <v>1.3048375377800869</v>
+      </c>
+      <c r="G5">
+        <v>0.88208881963266972</v>
+      </c>
+      <c r="H5">
+        <v>2.2476316384680759E-2</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="2"/>
+        <v>130.1</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="3"/>
+        <v>0.88208881963266972</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="4"/>
+        <v>1979.4736569964361</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="1"/>
+        <v>257529.52277523634</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="5"/>
+        <v>1746.0715815939504</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" si="6"/>
+        <v>33504590.913058247</v>
+      </c>
+      <c r="O5" s="13">
+        <f t="shared" si="7"/>
+        <v>227163.91276537295</v>
+      </c>
+      <c r="Q5">
+        <f>SQRT(K13/P3)</f>
+        <v>1.6498676479271048E-5</v>
+      </c>
+      <c r="R5">
+        <f>SQRT(N13/P3)</f>
+        <v>1.7021062448007217E-3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="8"/>
+        <v>8.2483212709444698E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>112.1</v>
+      </c>
+      <c r="F6">
+        <v>1.1254514649686143</v>
+      </c>
+      <c r="G6">
+        <v>0.74939076516042669</v>
+      </c>
+      <c r="H6">
+        <v>3.0242265019995208E-2</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="2"/>
+        <v>112.1</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="3"/>
+        <v>0.74939076516042669</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="4"/>
+        <v>1093.3806159184057</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="1"/>
+        <v>122567.96704445328</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="5"/>
+        <v>819.36933637467268</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" si="6"/>
+        <v>13739869.105683213</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" si="7"/>
+        <v>91851.30260760081</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="8"/>
+        <v>0.28812328751405736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>89.6</v>
+      </c>
+      <c r="F7">
+        <v>0.90156308708819699</v>
+      </c>
+      <c r="G7">
+        <v>0.58661250379413887</v>
+      </c>
+      <c r="H7">
+        <v>3.437757785394395E-2</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>89.6</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="3"/>
+        <v>0.58661250379413887</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="4"/>
+        <v>846.15407720964129</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="1"/>
+        <v>75815.405317983852</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="5"/>
+        <v>496.36456182756677</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="6"/>
+        <v>6793060.3164913524</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" si="7"/>
+        <v>44474.264739749982</v>
+      </c>
+      <c r="Q7">
+        <f>1/Q3</f>
+        <v>146.43664478840384</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="8"/>
+        <v>0.54424562700453427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="F8">
+        <v>0.6536941180705238</v>
+      </c>
+      <c r="G8">
+        <v>0.41338749620586113</v>
+      </c>
+      <c r="H8">
+        <v>3.437757785394395E-2</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="2"/>
+        <v>64.599999999999994</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.41338749620586113</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="4"/>
+        <v>846.15407720964129</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="1"/>
+        <v>54661.553387742824</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" si="5"/>
+        <v>349.78951538207451</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" si="6"/>
+        <v>3531136.348848186</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="7"/>
+        <v>22596.402693682012</v>
+      </c>
+      <c r="Q8">
+        <f>Q5/(Q3)^2</f>
+        <v>0.3537925192891449</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
+        <v>0.65696016009595426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>0.41231056256176613</v>
+      </c>
+      <c r="G9">
+        <v>0.25060923483957354</v>
+      </c>
+      <c r="H9">
+        <v>3.0242265019995211E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="3"/>
+        <v>0.25060923483957354</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="4"/>
+        <v>1093.3806159184055</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="1"/>
+        <v>43735.224636736224</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="5"/>
+        <v>274.01127954373322</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="6"/>
+        <v>1749408.9854694488</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="7"/>
+        <v>10960.451181749331</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="8"/>
+        <v>0.5610085471645212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>20.2</v>
+      </c>
+      <c r="F10">
+        <v>0.22539742678211744</v>
+      </c>
+      <c r="G10">
+        <v>0.11791118036733045</v>
+      </c>
+      <c r="H10">
+        <v>2.2476316384680766E-2</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>20.2</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="3"/>
+        <v>0.11791118036733045</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="4"/>
+        <v>1979.4736569964352</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="1"/>
+        <v>39985.367871327988</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="5"/>
+        <v>233.40207540248588</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="6"/>
+        <v>807704.43100082537</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="7"/>
+        <v>4714.7219231302142</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="8"/>
+        <v>0.80272244922435654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>0.11661903789690602</v>
+      </c>
+      <c r="G11">
+        <v>3.1298676573191485E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.2048064843326742E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="3"/>
+        <v>3.1298676573191485E-2</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="4"/>
+        <v>6889.1462971875362</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="1"/>
+        <v>41334.877783125216</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" si="5"/>
+        <v>215.62116182107241</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="6"/>
+        <v>248009.26669875131</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="7"/>
+        <v>1293.7269709264344</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="8"/>
+        <v>0.65891514789969907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>0.10000499987500626</v>
+      </c>
+      <c r="G12">
+        <v>1.2184696791468343E-3</v>
+      </c>
+      <c r="H12">
+        <v>1.7231763455898465E-3</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="3"/>
+        <v>1.2184696791468343E-3</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="4"/>
+        <v>336775.5478649197</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="1"/>
+        <v>33677.554786491972</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="5"/>
+        <v>410.35079375146802</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="6"/>
+        <v>3367.7554786491974</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="7"/>
+        <v>41.035079375146807</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="8"/>
+        <v>6.2388030695643956E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="12">
+        <f t="shared" ref="I13:O13" si="10">SUM(I3:I12)</f>
+        <v>751.50000000000011</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="10"/>
+        <v>695167.40502446354</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="10"/>
+        <v>50888284.833433293</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="10"/>
+        <v>347583.70251223177</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="10"/>
+        <v>7398855024.9867792</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="10"/>
+        <v>50531332.314069636</v>
+      </c>
+      <c r="S13">
+        <f>SUM(S3:S12)</f>
+        <v>3.8721920718708298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <v>143.19999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>241.1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>331</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>110.7</v>
+      </c>
+      <c r="J19">
+        <f>(COS(RADIANS(C3)))^2 - 1/2 * (2*COS(2*RADIANS(C3))) * (RADIANS(D3))^2</f>
+        <v>0.99878153032085315</v>
+      </c>
+      <c r="K19">
+        <f>1/SQRT(2) * ABS(2*COS(2*RADIANS(C3))) * (RADIANS(D3))</f>
+        <v>4.9365365979537397E-2</v>
+      </c>
+      <c r="L19">
+        <f>SQRT(F3^2+K19^2)</f>
+        <v>1.4662472299575857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>89.3</v>
+      </c>
+      <c r="J20">
+        <f>(COS(RADIANS(C4)))^2 - 1/2 * (2*COS(2*RADIANS(C4))) * (RADIANS(D4))^2</f>
+        <v>0.96870132342680848</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K28" si="11">1/SQRT(2) * ABS(2*COS(2*RADIANS(C4))) * (RADIANS(D4))</f>
+        <v>4.6388270133367021E-2</v>
+      </c>
+      <c r="L20">
+        <f>SQRT(F4^2+K20^2)</f>
+        <v>1.4302544779185156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>64.3</v>
+      </c>
+      <c r="J21">
+        <f>(COS(RADIANS(C5)))^2 - 1/2 * (2*COS(2*RADIANS(C5))) * (RADIANS(D5))^2</f>
+        <v>0.88208881963266972</v>
+      </c>
+      <c r="K21">
+        <f>1/SQRT(2) * ABS(2*COS(2*RADIANS(C5))) * (RADIANS(D5))</f>
+        <v>3.7816064291159274E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L28" si="12">SQRT(F5^2+K21^2)</f>
+        <v>1.3053854046673239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>40.6</v>
+      </c>
+      <c r="J22">
+        <f>(COS(RADIANS(C6)))^2 - 1/2 * (2*COS(2*RADIANS(C6))) * (RADIANS(D6))^2</f>
+        <v>0.74939076516042669</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="11"/>
+        <v>2.4682682989768702E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="12"/>
+        <v>1.1257220948527098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J23">
+        <f>(COS(RADIANS(C7)))^2 - 1/2 * (2*COS(2*RADIANS(C7))) * (RADIANS(D7))^2</f>
+        <v>0.58661250379413887</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="11"/>
+        <v>8.5722058422077526E-3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="12"/>
+        <v>0.90160383911837971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>6.1</v>
+      </c>
+      <c r="J24">
+        <f>(COS(RADIANS(C8)))^2 - 1/2 * (2*COS(2*RADIANS(C8))) * (RADIANS(D8))^2</f>
+        <v>0.41338749620586113</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="11"/>
+        <v>8.5722058422077474E-3</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="12"/>
+        <v>0.65375032138653755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="J25">
+        <f>(COS(RADIANS(C9)))^2 - 1/2 * (2*COS(2*RADIANS(C9))) * (RADIANS(D9))^2</f>
+        <v>0.25060923483957354</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="11"/>
+        <v>2.4682682989768688E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="12"/>
+        <v>0.41304870758734191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f>(COS(RADIANS(C10)))^2 - 1/2 * (2*COS(2*RADIANS(C10))) * (RADIANS(D10))^2</f>
+        <v>0.11791118036733045</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="11"/>
+        <v>3.7816064291159267E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="12"/>
+        <v>0.22854770775151756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>4.9365365979537397E-2</v>
+      </c>
+      <c r="J27">
+        <f>(COS(RADIANS(C11)))^2 - 1/2 * (2*COS(2*RADIANS(C11))) * (RADIANS(D11))^2</f>
+        <v>3.1298676573191485E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="11"/>
+        <v>4.6388270133367014E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="12"/>
+        <v>0.12550646041525604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>4.789995284058169E-2</v>
+      </c>
+      <c r="J28">
+        <f>(COS(RADIANS(C12)))^2 - 1/2 * (2*COS(2*RADIANS(C12))) * (RADIANS(D12))^2</f>
+        <v>1.2184696791468343E-3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="11"/>
+        <v>4.9365365979537397E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="12"/>
+        <v>0.11152550989927672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>4.3971548055343472E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>3.9026748505781812E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>3.5428957586237632E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>3.5428957586237625E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>3.9026748505781805E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>4.3971548055343465E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>4.7899952840581683E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>4.9365365979537397E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A13:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC15311C-F258-4E27-A54B-F5DED100C935}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -2472,12 +4470,12 @@
         <v>0.99878153032085315</v>
       </c>
       <c r="K19">
-        <f>1/SQRT(2) * ABS(2*COS(2*C3)) * (RADIANS(D3))</f>
-        <v>4.9365365979537397E-2</v>
+        <f>1/SQRT(2) * ABS(2*COS(2*RADIANS(C3))) * (RADIANS(D3))^2</f>
+        <v>1.7231763455898465E-3</v>
       </c>
       <c r="L19">
         <f>SQRT(F3^2+K19^2)</f>
-        <v>4.9365365979537397E-2</v>
+        <v>1.7231763455898465E-3</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2504,12 +4502,12 @@
         <v>0.96870132342680848</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K28" si="15">1/SQRT(2) * ABS(2*COS(2*C4)) * (RADIANS(D4))</f>
-        <v>2.0145120331102297E-2</v>
+        <f>1/SQRT(2) * ABS(2*COS(2*RADIANS(C4))) * (RADIANS(D4))^2</f>
+        <v>1.619256096263607E-3</v>
       </c>
       <c r="L20">
         <f>SQRT(F4^2+K20^2)</f>
-        <v>2.3417082425407097E-2</v>
+        <v>1.2048064843326737E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2521,12 +4519,12 @@
         <v>0.88208881963266972</v>
       </c>
       <c r="K21">
-        <f t="shared" si="15"/>
-        <v>3.2923641499147185E-2</v>
+        <f t="shared" ref="K20:K28" si="15">1/SQRT(2) * ABS(2*COS(2*RADIANS(C5))) * (RADIANS(D5))^2</f>
+        <v>1.3200296640531698E-3</v>
       </c>
       <c r="L21">
         <f t="shared" ref="L20:L28" si="16">SQRT(F5^2+K21^2)</f>
-        <v>3.984229523351604E-2</v>
+        <v>2.2476316384680759E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2539,11 +4537,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="15"/>
-        <v>4.7016215341856175E-2</v>
+        <v>8.6158817279492338E-4</v>
       </c>
       <c r="L22">
         <f t="shared" si="16"/>
-        <v>5.5896124771149538E-2</v>
+        <v>3.0242265019995208E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2556,11 +4554,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="15"/>
-        <v>5.4493066915870178E-3</v>
+        <v>2.9922643221043756E-4</v>
       </c>
       <c r="L23">
         <f t="shared" si="16"/>
-        <v>3.4805506260722874E-2</v>
+        <v>3.437757785394395E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2573,11 +4571,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="15"/>
-        <v>4.2568686721543486E-2</v>
+        <v>2.9922643221043735E-4</v>
       </c>
       <c r="L24">
         <f t="shared" si="16"/>
-        <v>5.4715824144786089E-2</v>
+        <v>3.437757785394395E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2590,11 +4588,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="15"/>
-        <v>4.0192341583618674E-2</v>
+        <v>8.6158817279492284E-4</v>
       </c>
       <c r="L25">
         <f t="shared" si="16"/>
-        <v>5.0291913677393593E-2</v>
+        <v>3.0242265019995211E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2604,11 +4602,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="15"/>
-        <v>9.7651394764410055E-3</v>
+        <v>1.3200296640531693E-3</v>
       </c>
       <c r="L26">
         <f t="shared" si="16"/>
-        <v>2.4470395765181962E-2</v>
+        <v>2.2476316384680766E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2618,25 +4616,25 @@
       </c>
       <c r="K27">
         <f t="shared" si="15"/>
-        <v>4.8162298086501458E-2</v>
+        <v>1.6192560962636068E-3</v>
       </c>
       <c r="L27">
         <f t="shared" si="16"/>
-        <v>4.961996405819679E-2</v>
+        <v>1.2048064843326742E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J28">
-        <f t="shared" si="14"/>
+        <f>(COS(RADIANS(C12)))^2 - 1/2 * (2*COS(2*RADIANS(C12))) * (RADIANS(D12))^2</f>
         <v>1.2184696791468343E-3</v>
       </c>
       <c r="K28">
         <f t="shared" si="15"/>
-        <v>2.9543200333180388E-2</v>
+        <v>1.7231763455898465E-3</v>
       </c>
       <c r="L28">
         <f t="shared" si="16"/>
-        <v>2.9543200333180388E-2</v>
+        <v>1.7231763455898465E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +4648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6229173D-4D88-4A36-BB0E-A6ECCF5185AA}">
   <dimension ref="A1:P25"/>
   <sheetViews>
